--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Rln1-Rxfp1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.761785666666666</v>
+        <v>2.119667333333334</v>
       </c>
       <c r="H2">
-        <v>5.285356999999999</v>
+        <v>6.359002</v>
       </c>
       <c r="I2">
-        <v>0.5982797421446987</v>
+        <v>0.6371329247828699</v>
       </c>
       <c r="J2">
-        <v>0.5982797421446987</v>
+        <v>0.6371329247828699</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.03795066666666667</v>
+        <v>0.02528233333333333</v>
       </c>
       <c r="N2">
-        <v>0.113852</v>
+        <v>0.075847</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.2893587312729617</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.2893587312729617</v>
       </c>
       <c r="Q2">
-        <v>0.06686094057377777</v>
+        <v>0.05359013607711112</v>
       </c>
       <c r="R2">
-        <v>0.6017484651639999</v>
+        <v>0.482311224694</v>
       </c>
       <c r="S2">
-        <v>0.5982797421446987</v>
+        <v>0.1843599747674026</v>
       </c>
       <c r="T2">
-        <v>0.5982797421446987</v>
+        <v>0.1843599747674026</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,51 +599,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.8424356666666667</v>
+        <v>2.119667333333334</v>
       </c>
       <c r="H3">
-        <v>2.527307</v>
+        <v>6.359002</v>
       </c>
       <c r="I3">
-        <v>0.2860803121303807</v>
+        <v>0.6371329247828699</v>
       </c>
       <c r="J3">
-        <v>0.2860803121303807</v>
+        <v>0.6371329247828699</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.03795066666666667</v>
+        <v>0.06209133333333333</v>
       </c>
       <c r="N3">
-        <v>0.113852</v>
+        <v>0.186274</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.7106412687270383</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.7106412687270383</v>
       </c>
       <c r="Q3">
-        <v>0.03197099517377778</v>
+        <v>0.1316129709497778</v>
       </c>
       <c r="R3">
-        <v>0.287738956564</v>
+        <v>1.184516738548</v>
       </c>
       <c r="S3">
-        <v>0.2860803121303807</v>
+        <v>0.4527729500154673</v>
       </c>
       <c r="T3">
-        <v>0.2860803121303807</v>
+        <v>0.4527729500154673</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.2646583333333333</v>
+        <v>0.8424356666666667</v>
       </c>
       <c r="H4">
-        <v>0.793975</v>
+        <v>2.527307</v>
       </c>
       <c r="I4">
-        <v>0.08987456443705452</v>
+        <v>0.2532206312773955</v>
       </c>
       <c r="J4">
-        <v>0.08987456443705454</v>
+        <v>0.2532206312773955</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.03795066666666667</v>
+        <v>0.02528233333333333</v>
       </c>
       <c r="N4">
-        <v>0.113852</v>
+        <v>0.075847</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2893587312729617</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2893587312729617</v>
       </c>
       <c r="Q4">
-        <v>0.01004396018888889</v>
+        <v>0.02129873933655556</v>
       </c>
       <c r="R4">
-        <v>0.0903956417</v>
+        <v>0.191688654029</v>
       </c>
       <c r="S4">
-        <v>0.08987456443705452</v>
+        <v>0.07327160059856561</v>
       </c>
       <c r="T4">
-        <v>0.08987456443705454</v>
+        <v>0.07327160059856561</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -723,46 +723,294 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.07587266666666666</v>
+        <v>0.8424356666666667</v>
       </c>
       <c r="H5">
-        <v>0.227618</v>
+        <v>2.527307</v>
       </c>
       <c r="I5">
-        <v>0.02576538128786609</v>
+        <v>0.2532206312773955</v>
       </c>
       <c r="J5">
-        <v>0.02576538128786609</v>
+        <v>0.2532206312773955</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.06209133333333333</v>
+      </c>
+      <c r="N5">
+        <v>0.186274</v>
+      </c>
+      <c r="O5">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="P5">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="Q5">
+        <v>0.05230795379088889</v>
+      </c>
+      <c r="R5">
+        <v>0.470771584118</v>
+      </c>
+      <c r="S5">
+        <v>0.1799490306788299</v>
+      </c>
+      <c r="T5">
+        <v>0.1799490306788299</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0.2981566666666667</v>
+      </c>
+      <c r="H6">
+        <v>0.89447</v>
+      </c>
+      <c r="I6">
+        <v>0.08962039754517039</v>
+      </c>
+      <c r="J6">
+        <v>0.08962039754517039</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0.3333333333333333</v>
       </c>
-      <c r="M5">
-        <v>0.03795066666666667</v>
-      </c>
-      <c r="N5">
-        <v>0.113852</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>0.002879418281777778</v>
-      </c>
-      <c r="R5">
-        <v>0.025914764536</v>
-      </c>
-      <c r="S5">
-        <v>0.02576538128786609</v>
-      </c>
-      <c r="T5">
-        <v>0.02576538128786609</v>
+      <c r="M6">
+        <v>0.02528233333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.075847</v>
+      </c>
+      <c r="O6">
+        <v>0.2893587312729617</v>
+      </c>
+      <c r="P6">
+        <v>0.2893587312729617</v>
+      </c>
+      <c r="Q6">
+        <v>0.007538096232222223</v>
+      </c>
+      <c r="R6">
+        <v>0.06784286609</v>
+      </c>
+      <c r="S6">
+        <v>0.02593244452984896</v>
+      </c>
+      <c r="T6">
+        <v>0.02593244452984896</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0.2981566666666667</v>
+      </c>
+      <c r="H7">
+        <v>0.89447</v>
+      </c>
+      <c r="I7">
+        <v>0.08962039754517039</v>
+      </c>
+      <c r="J7">
+        <v>0.08962039754517039</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M7">
+        <v>0.06209133333333333</v>
+      </c>
+      <c r="N7">
+        <v>0.186274</v>
+      </c>
+      <c r="O7">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="P7">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="Q7">
+        <v>0.01851294497555556</v>
+      </c>
+      <c r="R7">
+        <v>0.16661650478</v>
+      </c>
+      <c r="S7">
+        <v>0.06368795301532143</v>
+      </c>
+      <c r="T7">
+        <v>0.06368795301532143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.06662433333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.199873</v>
+      </c>
+      <c r="I8">
+        <v>0.0200260463945642</v>
+      </c>
+      <c r="J8">
+        <v>0.0200260463945642</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02528233333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.075847</v>
+      </c>
+      <c r="O8">
+        <v>0.2893587312729617</v>
+      </c>
+      <c r="P8">
+        <v>0.2893587312729617</v>
+      </c>
+      <c r="Q8">
+        <v>0.001684418603444444</v>
+      </c>
+      <c r="R8">
+        <v>0.015159767431</v>
+      </c>
+      <c r="S8">
+        <v>0.005794711377144566</v>
+      </c>
+      <c r="T8">
+        <v>0.005794711377144567</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.06662433333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.199873</v>
+      </c>
+      <c r="I9">
+        <v>0.0200260463945642</v>
+      </c>
+      <c r="J9">
+        <v>0.0200260463945642</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.06209133333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.186274</v>
+      </c>
+      <c r="O9">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="P9">
+        <v>0.7106412687270383</v>
+      </c>
+      <c r="Q9">
+        <v>0.004136793689111111</v>
+      </c>
+      <c r="R9">
+        <v>0.037231143202</v>
+      </c>
+      <c r="S9">
+        <v>0.01423133501741963</v>
+      </c>
+      <c r="T9">
+        <v>0.01423133501741963</v>
       </c>
     </row>
   </sheetData>
